--- a/Lib/Mounts.xlsx
+++ b/Lib/Mounts.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\World of Warcraft\_classic_\Interface\AddOns\ClassicRandomMounter\Lib\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D53ECC-34B2-40CE-A2B5-C437C2D374CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{B239CA98-A6D9-4450-933E-5E85325CA9CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -874,7 +868,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -976,7 +970,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1011,7 +1004,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1045,7 +1037,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1079,7 +1070,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1113,7 +1103,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1147,7 +1136,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1181,7 +1169,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1215,7 +1202,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1249,7 +1235,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1283,7 +1268,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1317,7 +1301,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1351,7 +1334,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1405,7 +1387,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1436,7 +1417,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1469,28 +1449,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07F99161-C72B-462A-B614-00F3D3ED8BB8}" name="Table1" displayName="Table1" ref="A1:L219" totalsRowShown="0">
-  <autoFilter ref="A1:L219" xr:uid="{225E663E-106C-4D74-8BFF-3F0162015FE8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L219">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L219" totalsRowShown="0">
+  <autoFilter ref="A1:L219"/>
+  <sortState ref="A2:L219">
     <sortCondition ref="C1:C219"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{BF7904C3-DA19-4BC3-88F8-32D2A43656AA}" name="WowHeadLink"/>
-    <tableColumn id="2" xr3:uid="{6EF2C160-8B91-4182-B798-CFF8F46BE737}" name="Name" dataDxfId="19">
+    <tableColumn id="1" name="WowHeadLink"/>
+    <tableColumn id="2" name="Name" dataDxfId="19">
       <calculatedColumnFormula>SUBSTITUTE(RIGHT(Table1[[#This Row],[WowHeadLink]], LEN(Table1[[#This Row],[WowHeadLink]]) - FIND("/",Table1[[#This Row],[WowHeadLink]],25)), "-", " ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{67DEE5A2-14CA-4B33-BFEA-B7DBF758D623}" name="ID" dataDxfId="18">
+    <tableColumn id="3" name="ID" dataDxfId="18">
       <calculatedColumnFormula>LEFT(RIGHT(Table1[[#This Row],[WowHeadLink]], LEN(Table1[[#This Row],[WowHeadLink]]) - 29), FIND("/",Table1[[#This Row],[WowHeadLink]],25) - 30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4466AC11-C0C5-4F4A-A926-44805A0DDC77}" name="Flying"/>
-    <tableColumn id="5" xr3:uid="{9F7B21C3-A9EF-4669-B149-DEB01A399069}" name="SwiftFlying"/>
-    <tableColumn id="6" xr3:uid="{DE97F0DD-220B-4768-964F-C248372D9E2F}" name="SuperSwiftFlying"/>
-    <tableColumn id="7" xr3:uid="{31ACB57B-4C77-434C-AAE0-4DFE6381BC36}" name="Ground"/>
-    <tableColumn id="8" xr3:uid="{5833DF82-2D83-448A-83EE-0FAAFFCD1C88}" name="SwiftGround"/>
-    <tableColumn id="11" xr3:uid="{7B300641-95A1-4FD1-BB73-EBA707ACD954}" name="Swimming"/>
-    <tableColumn id="12" xr3:uid="{9562D003-4C09-40DB-9832-A0DC9DD90D77}" name="Instance"/>
-    <tableColumn id="10" xr3:uid="{49B500D3-B89C-4DD3-8C65-72ADEA1A5323}" name="Family"/>
-    <tableColumn id="9" xr3:uid="{5F1AB7BC-536F-4FE9-9B1D-51E5AB559DDD}" name="Code" dataDxfId="17">
+    <tableColumn id="4" name="Flying"/>
+    <tableColumn id="5" name="SwiftFlying"/>
+    <tableColumn id="6" name="SuperSwiftFlying"/>
+    <tableColumn id="7" name="Ground"/>
+    <tableColumn id="8" name="SwiftGround"/>
+    <tableColumn id="11" name="Swimming"/>
+    <tableColumn id="12" name="Instance"/>
+    <tableColumn id="10" name="Family"/>
+    <tableColumn id="9" name="Code" dataDxfId="17">
       <calculatedColumnFormula>CONCATENATE("  [""", Table1[[#This Row],[Name]], """] ={""", Table1[[#This Row],[Name]], """, ", Table1[[#This Row],[ID]], ", ", Table1[[#This Row],[Ground]], ", ", Table1[[#This Row],[SwiftGround]], ", ", Table1[[#This Row],[Flying]], ", ", Table1[[#This Row],[SwiftFlying]], ", ", Table1[[#This Row],[SuperSwiftFlying]], "},")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1499,24 +1479,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E65821BE-2124-4374-9FE8-E8511D772D6C}" name="Table2" displayName="Table2" ref="A1:L18" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:L18" xr:uid="{2B3EE694-7F26-4D02-A364-28DA6039AE17}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L18" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:L18"/>
+  <sortState ref="B2:L18">
     <sortCondition ref="B1:B18"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="12" xr3:uid="{6ADDC477-41D5-403A-A4EC-3DC306F31B37}" name="Unique Name" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{FD900257-266B-4C18-BE2A-36EE4886B65A}" name="Name" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{BAE69DC1-D371-4FDC-BF4B-3EA4C338F6D7}" name="ID" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F9A908B1-55B5-4F58-9C2C-98EDD25E5B56}" name="Flying" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{C8A43389-2770-4330-A5DC-E432BF79BDA6}" name="SwiftFlying" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D890F3C5-BEEB-4E5B-8DEA-4AE927C9BFCE}" name="SuperSwiftFlying" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{9B1B496E-8A42-4E33-B9EA-F72D4DA86308}" name="Ground" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{2CB06E1F-0632-4B46-91EA-E94A7CEF3E0E}" name="SwiftGround" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{95999CB8-B763-4BFE-8169-77E7DB1F7C5B}" name="Swimming" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{FBFBF56B-B189-4F26-A812-473EA7FC816F}" name="Instance" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{E6C327B8-6716-4B06-A41E-B7E6169CA7C0}" name="Family" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{7A8E70E2-4E3C-4E38-B436-A38738B37924}" name="Code" dataDxfId="0">
+    <tableColumn id="12" name="Unique Name" dataDxfId="11"/>
+    <tableColumn id="1" name="Name" dataDxfId="10"/>
+    <tableColumn id="2" name="ID" dataDxfId="9"/>
+    <tableColumn id="3" name="Flying" dataDxfId="8"/>
+    <tableColumn id="4" name="SwiftFlying" dataDxfId="7"/>
+    <tableColumn id="5" name="SuperSwiftFlying" dataDxfId="6"/>
+    <tableColumn id="6" name="Ground" dataDxfId="5"/>
+    <tableColumn id="7" name="SwiftGround" dataDxfId="4"/>
+    <tableColumn id="8" name="Swimming" dataDxfId="3"/>
+    <tableColumn id="9" name="Instance" dataDxfId="2"/>
+    <tableColumn id="10" name="Family" dataDxfId="1"/>
+    <tableColumn id="11" name="Code" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE("  [""", Table2[[#This Row],[Unique Name]], """] ={""", Table2[[#This Row],[Name]], """, ", Table2[[#This Row],[ID]], ", ", Table2[[#This Row],[Ground]], ", ", Table2[[#This Row],[SwiftGround]], ", ", Table2[[#This Row],[Flying]], ", ", Table2[[#This Row],[SwiftFlying]], ", ", Table2[[#This Row],[SuperSwiftFlying]], "},")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1813,18 +1793,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80E6D50-4E0D-4FCA-98E2-C3A6DF03D0F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L2"/>
+    <sheetView tabSelected="1" topLeftCell="B144" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9391,10 +9371,10 @@
         <v>37012</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -9416,7 +9396,7 @@
       </c>
       <c r="L185" t="str">
         <f>CONCATENATE("  [""", Table1[[#This Row],[Name]], """] ={""", Table1[[#This Row],[Name]], """, ", Table1[[#This Row],[ID]], ", ", Table1[[#This Row],[Ground]], ", ", Table1[[#This Row],[SwiftGround]], ", ", Table1[[#This Row],[Flying]], ", ", Table1[[#This Row],[SwiftFlying]], ", ", Table1[[#This Row],[SuperSwiftFlying]], "},")</f>
-        <v xml:space="preserve">  ["the horsemans reins"] ={"the horsemans reins", 37012, 1, 1, 0, 0, 0},</v>
+        <v xml:space="preserve">  ["the horsemans reins"] ={"the horsemans reins", 37012, 1, 1, 1, 1, 0},</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -10815,22 +10795,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A182" r:id="rId1" xr:uid="{7B49D0BE-1F02-4696-91A3-F3CE7A0B490B}"/>
-    <hyperlink ref="A55" r:id="rId2" xr:uid="{047E4CA1-06DB-4CBF-B2C4-50E92FDD7FB8}"/>
-    <hyperlink ref="A156" r:id="rId3" xr:uid="{18FA5741-D2DE-4EFE-99D4-E86A48037C50}"/>
-    <hyperlink ref="A64" r:id="rId4" xr:uid="{12880434-9594-46AE-AF91-ED9E520CF96A}"/>
-    <hyperlink ref="A205" r:id="rId5" xr:uid="{6BC79C22-7FBF-4953-80DC-BBF582CDC25A}"/>
-    <hyperlink ref="A58" r:id="rId6" xr:uid="{23F7281A-8724-4D8E-B377-4CD6670080C7}"/>
-    <hyperlink ref="A66" r:id="rId7" xr:uid="{56E7B98B-6A7D-4D24-9EF7-3F2129DB6D25}"/>
-    <hyperlink ref="A186" r:id="rId8" xr:uid="{1C1ECE92-BB50-4B01-932B-436D8037B8A2}"/>
-    <hyperlink ref="A100" r:id="rId9" xr:uid="{79759B51-0644-4D8F-B3C1-AA74E113F856}"/>
-    <hyperlink ref="A25" r:id="rId10" xr:uid="{32674FC6-C3C9-4BCE-8E1F-10FF9DA1940C}"/>
-    <hyperlink ref="A147" r:id="rId11" xr:uid="{1BFF9C90-CE5C-44C1-AF4A-CD80E004832E}"/>
-    <hyperlink ref="A210" r:id="rId12" xr:uid="{21C2B2D0-2FDE-4253-8021-6894B1EACCA7}"/>
-    <hyperlink ref="A21" r:id="rId13" xr:uid="{EA3EB3FD-2B69-49BD-B1FD-6A6CF98B2340}"/>
-    <hyperlink ref="A20" r:id="rId14" xr:uid="{E38614EA-029E-46B7-8354-A992D7FFFA3A}"/>
-    <hyperlink ref="A206" r:id="rId15" xr:uid="{528CE2AD-5A9C-49D7-980D-6A596C20FCAB}"/>
-    <hyperlink ref="A19" r:id="rId16" xr:uid="{013E53FC-2996-4DB3-B76D-92C2A389813E}"/>
+    <hyperlink ref="A182" r:id="rId1"/>
+    <hyperlink ref="A55" r:id="rId2"/>
+    <hyperlink ref="A156" r:id="rId3"/>
+    <hyperlink ref="A64" r:id="rId4"/>
+    <hyperlink ref="A205" r:id="rId5"/>
+    <hyperlink ref="A58" r:id="rId6"/>
+    <hyperlink ref="A66" r:id="rId7"/>
+    <hyperlink ref="A186" r:id="rId8"/>
+    <hyperlink ref="A100" r:id="rId9"/>
+    <hyperlink ref="A25" r:id="rId10"/>
+    <hyperlink ref="A147" r:id="rId11"/>
+    <hyperlink ref="A210" r:id="rId12"/>
+    <hyperlink ref="A21" r:id="rId13"/>
+    <hyperlink ref="A20" r:id="rId14"/>
+    <hyperlink ref="A206" r:id="rId15"/>
+    <hyperlink ref="A19" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -10840,10 +10820,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05976E9C-A3B2-4A16-8932-4A724324CC07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L18"/>
     </sheetView>
   </sheetViews>
